--- a/LP2.2/Trabalho 1/Tabela EP1.xlsx
+++ b/LP2.2/Trabalho 1/Tabela EP1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meus arquivos\Documents\UFPB\LP2\EP1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tgg\Desktop\LP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
-  <si>
-    <t>Matrizes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>12x12</t>
   </si>
@@ -53,131 +50,200 @@
     <t>200x200</t>
   </si>
   <si>
-    <t>Sequencial</t>
-  </si>
-  <si>
-    <t>Duas Threads</t>
-  </si>
-  <si>
-    <t>Quatro Threads</t>
-  </si>
-  <si>
-    <t>N Threads</t>
-  </si>
-  <si>
-    <t>0,063s</t>
-  </si>
-  <si>
-    <t>0,158s</t>
-  </si>
-  <si>
-    <t>0,535s</t>
-  </si>
-  <si>
-    <t>2,081s</t>
-  </si>
-  <si>
-    <t>3,075s</t>
-  </si>
-  <si>
-    <t>4,685s</t>
-  </si>
-  <si>
-    <t>7,743s</t>
-  </si>
-  <si>
-    <t>12,076s</t>
-  </si>
-  <si>
-    <t>0,074s</t>
-  </si>
-  <si>
-    <t>0,149s</t>
-  </si>
-  <si>
-    <t>0,530s</t>
-  </si>
-  <si>
-    <t>1,990s</t>
-  </si>
-  <si>
-    <t>3,030s</t>
-  </si>
-  <si>
-    <t>4,547s</t>
-  </si>
-  <si>
-    <t>7,694s</t>
-  </si>
-  <si>
-    <t>12,017s</t>
-  </si>
-  <si>
-    <t>0,069s</t>
-  </si>
-  <si>
-    <t>0,153s</t>
-  </si>
-  <si>
-    <t>0,516s</t>
-  </si>
-  <si>
-    <t>1,966s</t>
-  </si>
-  <si>
-    <t>3,050s</t>
-  </si>
-  <si>
-    <t>4,728s</t>
-  </si>
-  <si>
-    <t>7,544s</t>
-  </si>
-  <si>
-    <t>12,010s</t>
-  </si>
-  <si>
-    <t>0,147s</t>
-  </si>
-  <si>
-    <t>0,501s</t>
-  </si>
-  <si>
-    <t>1,986s</t>
-  </si>
-  <si>
-    <t>3,054s</t>
-  </si>
-  <si>
-    <t>4,552s</t>
-  </si>
-  <si>
-    <t>7,816s</t>
-  </si>
-  <si>
-    <t>12,020s</t>
-  </si>
-  <si>
-    <t>1000x1000</t>
-  </si>
-  <si>
-    <t>46,709s</t>
-  </si>
-  <si>
-    <t>47,735s</t>
-  </si>
-  <si>
-    <t>47,872s</t>
-  </si>
-  <si>
-    <t>47,685s</t>
+    <t>Matriz</t>
+  </si>
+  <si>
+    <t>0.210s</t>
+  </si>
+  <si>
+    <t>0.404s</t>
+  </si>
+  <si>
+    <t>0.164s</t>
+  </si>
+  <si>
+    <t>1.274s</t>
+  </si>
+  <si>
+    <t>500x500</t>
+  </si>
+  <si>
+    <t>1.872s</t>
+  </si>
+  <si>
+    <t>2.651s</t>
+  </si>
+  <si>
+    <t>4.577s</t>
+  </si>
+  <si>
+    <t>7.218s</t>
+  </si>
+  <si>
+    <t>41.449s</t>
+  </si>
+  <si>
+    <t>0.167s</t>
+  </si>
+  <si>
+    <t>0.208s</t>
+  </si>
+  <si>
+    <t>0.406s</t>
+  </si>
+  <si>
+    <t>1.193s</t>
+  </si>
+  <si>
+    <t>1.843s</t>
+  </si>
+  <si>
+    <t>2.662s</t>
+  </si>
+  <si>
+    <t>4.859s</t>
+  </si>
+  <si>
+    <t>7.256s</t>
+  </si>
+  <si>
+    <t>40.915s</t>
+  </si>
+  <si>
+    <t>20 Threads</t>
+  </si>
+  <si>
+    <t>Sequencial (1 Thread)</t>
+  </si>
+  <si>
+    <t>2 Threads</t>
+  </si>
+  <si>
+    <t>4 Threads</t>
+  </si>
+  <si>
+    <t>0.165s</t>
+  </si>
+  <si>
+    <t>50 Threads</t>
+  </si>
+  <si>
+    <t>100 Threads</t>
+  </si>
+  <si>
+    <t>0.171s</t>
+  </si>
+  <si>
+    <t>0.170s</t>
+  </si>
+  <si>
+    <t>0.194s</t>
+  </si>
+  <si>
+    <t>0.206s</t>
+  </si>
+  <si>
+    <t>0.218s</t>
+  </si>
+  <si>
+    <t>0.226s</t>
+  </si>
+  <si>
+    <t>0.434s</t>
+  </si>
+  <si>
+    <t>1.234s</t>
+  </si>
+  <si>
+    <t>0.429s</t>
+  </si>
+  <si>
+    <t>0.420s</t>
+  </si>
+  <si>
+    <t>0.465s</t>
+  </si>
+  <si>
+    <t>1.232s</t>
+  </si>
+  <si>
+    <t>1.807s</t>
+  </si>
+  <si>
+    <t>2.573s</t>
+  </si>
+  <si>
+    <t>4.443s</t>
+  </si>
+  <si>
+    <t>7.188s</t>
+  </si>
+  <si>
+    <t>41.509s</t>
+  </si>
+  <si>
+    <t>41.309s</t>
+  </si>
+  <si>
+    <t>42.038s</t>
+  </si>
+  <si>
+    <t>40.167s</t>
+  </si>
+  <si>
+    <t>6.931s</t>
+  </si>
+  <si>
+    <t>4.448s</t>
+  </si>
+  <si>
+    <t>2.642s</t>
+  </si>
+  <si>
+    <t>1.836s</t>
+  </si>
+  <si>
+    <t>6.844s</t>
+  </si>
+  <si>
+    <t>6.838s</t>
+  </si>
+  <si>
+    <t>4.563s</t>
+  </si>
+  <si>
+    <t>4.552s</t>
+  </si>
+  <si>
+    <t>2.650s</t>
+  </si>
+  <si>
+    <t>2.624s</t>
+  </si>
+  <si>
+    <t>1.787s</t>
+  </si>
+  <si>
+    <t>1.837s</t>
+  </si>
+  <si>
+    <t>1.246s</t>
+  </si>
+  <si>
+    <t>RAM: 16GB 2133 MHz)</t>
+  </si>
+  <si>
+    <t>Testes realizados em uma máquina com:</t>
+  </si>
+  <si>
+    <t>Processador I7-7770 (3.60GHz / 4 Núcleos e 8 Threads / 8MB Cache)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,16 +251,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,17 +289,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,189 +617,277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F12"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
